--- a/01_BachelorWifoMannheim/04_Graph/SkillCourseWeights.xlsx
+++ b/01_BachelorWifoMannheim/04_Graph/SkillCourseWeights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/01_BachelorWifoMannheim/04_Graph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_503DD3B8D390D434DF1B2B11595ED87656CCE8EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8611E15-256C-4349-9B59-8DB4FB183F5B}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_503DD3B8D390D434DF1B2B11595ED87656CCE8EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA868F13-75E3-439F-B6F3-5EA422467E55}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,10 +542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B276" sqref="B276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2.5743001952709239</v>
       </c>
@@ -583,7 +584,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.6570384869384238</v>
       </c>
@@ -597,7 +598,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3.997153362940141</v>
       </c>
@@ -611,7 +612,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.382521979812612</v>
       </c>
@@ -625,7 +626,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.8716710008556592</v>
       </c>
@@ -639,7 +640,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4.149160027441531</v>
       </c>
@@ -653,7 +654,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.3167060972447531</v>
       </c>
@@ -667,7 +668,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4.2885178456180464</v>
       </c>
@@ -681,7 +682,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.3149075680064266</v>
       </c>
@@ -695,7 +696,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.563798569459629</v>
       </c>
@@ -709,7 +710,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4.3133611414076052</v>
       </c>
@@ -723,7 +724,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4.5208884157875753</v>
       </c>
@@ -737,7 +738,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -751,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4.6985165937814504</v>
       </c>
@@ -765,7 +766,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4.3520952380793219</v>
       </c>
@@ -779,7 +780,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -793,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -807,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -821,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -835,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -849,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -863,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -877,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -891,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -905,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -919,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -933,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -947,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -961,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2.0352726112891091</v>
       </c>
@@ -975,7 +976,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2.0874729569905792</v>
       </c>
@@ -989,7 +990,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2.7989681514708389</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2.0335724211677539</v>
       </c>
@@ -1017,7 +1018,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2.735723716824138</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2.0599006420161059</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2.814013056992517</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2.84285513944344</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2.6654939346721491</v>
       </c>
@@ -1087,7 +1088,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2.869955677283615</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2.840549711612383</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0</v>
       </c>
@@ -1171,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -1213,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -1227,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -1283,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
@@ -1297,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2.058599749687327</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.1380559565260031</v>
       </c>
@@ -1339,7 +1340,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.4400067513367729</v>
       </c>
@@ -1353,7 +1354,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2.2428076735408942</v>
       </c>
@@ -1367,7 +1368,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2.0171116235135691</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2.3171347650705258</v>
       </c>
@@ -1395,7 +1396,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2.3208076763307122</v>
       </c>
@@ -1409,7 +1410,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2.5198017653885239</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2.3555593958064018</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2.4535172854948719</v>
       </c>
@@ -1451,7 +1452,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2.3859766227661252</v>
       </c>
@@ -1479,7 +1480,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0</v>
       </c>
@@ -1535,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0</v>
       </c>
@@ -1549,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0</v>
       </c>
@@ -1563,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0</v>
       </c>
@@ -1591,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0</v>
       </c>
@@ -1619,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0</v>
       </c>
@@ -1633,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0</v>
       </c>
@@ -1647,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0</v>
       </c>
@@ -1661,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1.2482337560298931</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.82087236672536368</v>
       </c>
@@ -1689,7 +1690,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1.2935548333288009</v>
       </c>
@@ -1703,7 +1704,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1.2334082266182149</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1.3280240909845009</v>
       </c>
@@ -1731,7 +1732,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1.5976368619379899</v>
       </c>
@@ -1745,7 +1746,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1.7091359241350279</v>
       </c>
@@ -1759,7 +1760,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1.579589819216362</v>
       </c>
@@ -1773,7 +1774,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1.6722743289295201</v>
       </c>
@@ -1787,7 +1788,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>0</v>
       </c>
@@ -1801,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0</v>
       </c>
@@ -1815,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -1843,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0</v>
       </c>
@@ -1857,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>0</v>
       </c>
@@ -1885,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>0</v>
       </c>
@@ -1899,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>0</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0</v>
       </c>
@@ -1927,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>0</v>
       </c>
@@ -1941,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0</v>
       </c>
@@ -1955,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>0.56283306726825455</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>0.60779727748254897</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0.62149737015121698</v>
       </c>
@@ -2011,7 +2012,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>0</v>
       </c>
@@ -2025,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>0</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>0</v>
       </c>
@@ -2053,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>0</v>
       </c>
@@ -2067,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>0</v>
       </c>
@@ -2081,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>0</v>
       </c>
@@ -2095,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0</v>
       </c>
@@ -2109,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0</v>
       </c>
@@ -2123,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>0</v>
       </c>
@@ -2137,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>0</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>0</v>
       </c>
@@ -2165,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>0</v>
       </c>
@@ -2179,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>0</v>
       </c>
@@ -2193,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>0.5666450678795284</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>0.7628664145887647</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>0.76257754752846607</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>0</v>
       </c>
@@ -2249,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>0</v>
       </c>
@@ -2263,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>0</v>
       </c>
@@ -2277,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>0</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>0</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>0</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>0</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>0</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -2361,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>0</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>0</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>0</v>
       </c>
@@ -2403,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>0</v>
       </c>
@@ -2417,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>0.49838677685471722</v>
       </c>
@@ -2431,7 +2432,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>0.85025254207875312</v>
       </c>
@@ -2445,7 +2446,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>0</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>0</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>0</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>0</v>
       </c>
@@ -2501,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>0</v>
       </c>
@@ -2515,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>0</v>
       </c>
@@ -2529,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>0</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>0</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>0</v>
       </c>
@@ -2571,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>0</v>
       </c>
@@ -2585,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>0</v>
       </c>
@@ -2599,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>0</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>0</v>
       </c>
@@ -2627,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>0.49456975904362638</v>
       </c>
@@ -2641,7 +2642,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>0.84074894671236378</v>
       </c>
@@ -2655,7 +2656,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>0</v>
       </c>
@@ -2669,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>0</v>
       </c>
@@ -2683,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>0</v>
       </c>
@@ -2697,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>0</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>0</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>0</v>
       </c>
@@ -2739,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>0</v>
       </c>
@@ -2753,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>0</v>
       </c>
@@ -2767,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>0</v>
       </c>
@@ -2781,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>0</v>
       </c>
@@ -2795,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>0</v>
       </c>
@@ -2809,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>0</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>0</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>0.63725552165909916</v>
       </c>
@@ -2851,7 +2852,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1.11549864397346</v>
       </c>
@@ -2865,7 +2866,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1.1448362089106721</v>
       </c>
@@ -2879,7 +2880,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>0</v>
       </c>
@@ -2893,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>0</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>0</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>0</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>0</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>0</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>0</v>
       </c>
@@ -2977,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>0</v>
       </c>
@@ -2991,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>0</v>
       </c>
@@ -3005,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>0</v>
       </c>
@@ -3019,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>0</v>
       </c>
@@ -3033,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>0</v>
       </c>
@@ -3047,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>0</v>
       </c>
@@ -3061,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>0.47883076162972737</v>
       </c>
@@ -3075,7 +3076,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>0.48498221673976971</v>
       </c>
@@ -3089,7 +3090,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>0</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>0</v>
       </c>
@@ -3117,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>0</v>
       </c>
@@ -3131,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>0</v>
       </c>
@@ -3145,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>0</v>
       </c>
@@ -3159,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>0</v>
       </c>
@@ -3173,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>0</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>0</v>
       </c>
@@ -3201,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>0</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>0</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>0</v>
       </c>
@@ -3243,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>0</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>0</v>
       </c>
@@ -3271,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>0</v>
       </c>
@@ -3285,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>0</v>
       </c>
@@ -3299,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>0</v>
       </c>
@@ -3313,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>0</v>
       </c>
@@ -3327,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>0</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>0</v>
       </c>
@@ -3355,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>0</v>
       </c>
@@ -3369,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>0</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>0</v>
       </c>
@@ -3397,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>0</v>
       </c>
@@ -3411,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>0</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>0</v>
       </c>
@@ -3439,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>0</v>
       </c>
@@ -3453,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>0.89971547699058574</v>
       </c>
@@ -3467,7 +3468,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1.002665210101465</v>
       </c>
@@ -3481,7 +3482,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1.429808045908548</v>
       </c>
@@ -3495,7 +3496,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1.6369854228517471</v>
       </c>
@@ -3509,7 +3510,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1.736358441866211</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>0</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>0</v>
       </c>
@@ -3551,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>0</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>0</v>
       </c>
@@ -3579,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>0</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>0</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>0</v>
       </c>
@@ -3621,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>0</v>
       </c>
@@ -3635,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>0</v>
       </c>
@@ -3649,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>0</v>
       </c>
@@ -3663,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>0</v>
       </c>
@@ -3677,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>0</v>
       </c>
@@ -3691,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>0</v>
       </c>
@@ -3705,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>0.42977248875168778</v>
       </c>
@@ -3719,7 +3720,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>0.39053837092929061</v>
       </c>
@@ -3733,7 +3734,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>0.46628606665534222</v>
       </c>
@@ -3747,7 +3748,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>0</v>
       </c>
@@ -3761,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>0</v>
       </c>
@@ -3775,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>0</v>
       </c>
@@ -3789,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>0</v>
       </c>
@@ -3803,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>0</v>
       </c>
@@ -3817,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>0</v>
       </c>
@@ -3831,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>0</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>0</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>0</v>
       </c>
@@ -3873,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>0</v>
       </c>
@@ -3887,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>0</v>
       </c>
@@ -3901,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0</v>
       </c>
@@ -3915,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>0</v>
       </c>
@@ -3929,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>0</v>
       </c>
@@ -3943,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>0</v>
       </c>
@@ -3957,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>0</v>
       </c>
@@ -3971,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>0</v>
       </c>
@@ -3985,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>0</v>
       </c>
@@ -3999,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>0</v>
       </c>
@@ -4013,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>0</v>
       </c>
@@ -4027,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>0</v>
       </c>
@@ -4041,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>0</v>
       </c>
@@ -4055,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>0</v>
       </c>
@@ -4069,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>0</v>
       </c>
@@ -4083,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>0</v>
       </c>
@@ -4097,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>0</v>
       </c>
@@ -4111,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>0.85085633674311223</v>
       </c>
@@ -4125,7 +4126,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>0.97958738468583872</v>
       </c>
@@ -4139,7 +4140,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1.7353276448917321</v>
       </c>
@@ -4153,7 +4154,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2.6767605033523671</v>
       </c>
@@ -4167,7 +4168,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2.727124742911895</v>
       </c>
@@ -4181,7 +4182,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2.65728721507916</v>
       </c>
@@ -4195,7 +4196,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2.7540320817031279</v>
       </c>
@@ -4209,7 +4210,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>3.0890580534115331</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>0</v>
       </c>
@@ -4237,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>0</v>
       </c>
@@ -4251,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>0</v>
       </c>
@@ -4265,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>0</v>
       </c>
@@ -4279,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>0</v>
       </c>
@@ -4293,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>0</v>
       </c>
@@ -4307,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>0</v>
       </c>
@@ -4321,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>0</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>0</v>
       </c>
@@ -4349,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>0</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>0</v>
       </c>
@@ -4377,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>0</v>
       </c>
@@ -4391,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>0</v>
       </c>
@@ -4419,7 +4420,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>0</v>
       </c>
@@ -4433,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>0</v>
       </c>
@@ -4447,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>0</v>
       </c>
@@ -4461,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>0</v>
       </c>
@@ -4475,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>0</v>
       </c>
@@ -4489,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>0</v>
       </c>
@@ -4503,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>0</v>
       </c>
@@ -4517,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>0</v>
       </c>
@@ -4531,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>0</v>
       </c>
@@ -4545,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>0</v>
       </c>
@@ -4559,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>0</v>
       </c>
@@ -4573,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>0</v>
       </c>
@@ -4587,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>0</v>
       </c>
@@ -4615,7 +4616,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>0</v>
       </c>
@@ -4629,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>0</v>
       </c>
@@ -4643,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>0</v>
       </c>
@@ -4657,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>0</v>
       </c>
@@ -4671,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>0</v>
       </c>
@@ -4685,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>0</v>
       </c>
@@ -4699,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>0</v>
       </c>
@@ -4713,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>0</v>
       </c>
@@ -4727,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>0</v>
       </c>
@@ -4741,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>0</v>
       </c>
@@ -4755,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>0</v>
       </c>
@@ -4769,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>0</v>
       </c>
@@ -4783,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>0</v>
       </c>
@@ -4797,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>0.19982978278200039</v>
       </c>
@@ -4812,7 +4813,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D304" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D304" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Produktion"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>